--- a/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>GBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,19 +747,19 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
@@ -764,19 +771,25 @@
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
       <c r="O8" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>800</v>
+      </c>
+      <c r="R8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,43 +797,49 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>300</v>
-      </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
       <c r="M9" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
       </c>
       <c r="O9" s="3">
+        <v>500</v>
+      </c>
+      <c r="P9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -831,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -843,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>-100</v>
@@ -858,13 +877,19 @@
         <v>-100</v>
       </c>
       <c r="O10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2300</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>2600</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>2600</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>-900</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,67 +1123,75 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
@@ -1140,28 +1199,34 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,87 +1254,99 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="E21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1389,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,25 +1689,31 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1854,99 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,25 +2149,25 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>400</v>
       </c>
       <c r="L41" s="3">
         <v>400</v>
@@ -2003,16 +2176,22 @@
         <v>400</v>
       </c>
       <c r="N41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P41" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,34 +2234,40 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E43" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="F43" s="3">
         <v>4200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>4300</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,96 +2334,114 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>4100</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F46" s="3">
         <v>4300</v>
-      </c>
-      <c r="E46" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>4700</v>
       </c>
       <c r="G46" s="3">
         <v>4500</v>
       </c>
       <c r="H46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I46" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>700</v>
-      </c>
-      <c r="O46" s="3">
-        <v>400</v>
       </c>
       <c r="P46" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>400</v>
+      </c>
+      <c r="R46" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2484,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2466,10 +2705,10 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -2490,13 +2729,19 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F54" s="3">
         <v>6000</v>
-      </c>
-      <c r="E54" s="3">
-        <v>7900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>8100</v>
       </c>
       <c r="G54" s="3">
         <v>7900</v>
       </c>
       <c r="H54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J54" s="3">
         <v>3800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,60 +2878,68 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2705,15 +2972,21 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2731,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2746,57 +3019,69 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
-        <v>100</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>700</v>
       </c>
       <c r="N60" s="3">
         <v>700</v>
       </c>
       <c r="O60" s="3">
+        <v>700</v>
+      </c>
+      <c r="P60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2825,10 +3110,10 @@
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>300</v>
@@ -2837,10 +3122,16 @@
         <v>300</v>
       </c>
       <c r="P61" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>300</v>
+      </c>
+      <c r="R61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R62" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
         <v>3600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3200</v>
       </c>
       <c r="G66" s="3">
         <v>3100</v>
       </c>
       <c r="H66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3700</v>
       </c>
       <c r="N66" s="3">
         <v>3700</v>
       </c>
       <c r="O66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-61200</v>
       </c>
-      <c r="E72" s="3">
-        <v>-58900</v>
-      </c>
       <c r="F72" s="3">
-        <v>-58700</v>
+        <v>-61200</v>
       </c>
       <c r="G72" s="3">
         <v>-58900</v>
       </c>
       <c r="H72" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="J72" s="3">
         <v>-58800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-58700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-58500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-58400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-55500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-55400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-55300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-55100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-55800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G76" s="3">
         <v>4700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3643,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3661,19 +4058,25 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>700</v>
       </c>
-      <c r="P83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,19 +4393,21 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -3980,11 +4421,11 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3993,13 +4434,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,29 +4539,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4125,13 +4584,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>700</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4339,37 +4830,43 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>4400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>GBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,16 +757,16 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
@@ -777,19 +781,22 @@
         <v>200</v>
       </c>
       <c r="O8" s="3">
+        <v>200</v>
+      </c>
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,10 +804,10 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
@@ -809,16 +816,16 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
@@ -827,19 +834,22 @@
         <v>300</v>
       </c>
       <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,13 +857,13 @@
         <v>-100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -868,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>-100</v>
@@ -883,13 +893,16 @@
         <v>-100</v>
       </c>
       <c r="Q10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R10" s="3">
         <v>-400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1040,11 +1060,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>2600</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1052,14 +1072,17 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>-900</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,49 +1161,52 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,17 +1214,17 @@
         <v>-200</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
@@ -1205,28 +1235,31 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1260,16 +1294,16 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1278,25 +1312,28 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,49 +1447,52 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,49 +1606,52 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,49 +1659,52 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,19 +1753,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1715,8 +1776,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1860,16 +1930,16 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>-100</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1878,25 +1948,28 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,49 +1977,52 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,104 +2083,110 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2155,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>300</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
       </c>
       <c r="L41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M41" s="3">
         <v>400</v>
@@ -2182,16 +2269,19 @@
         <v>400</v>
       </c>
       <c r="P41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,37 +2330,40 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,20 +2436,23 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2361,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>4100</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2376,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2385,63 +2484,69 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="E46" s="3">
         <v>4100</v>
       </c>
       <c r="F46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G46" s="3">
         <v>4300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>400</v>
       </c>
       <c r="L46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>500</v>
       </c>
       <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
         <v>600</v>
-      </c>
-      <c r="O46" s="3">
-        <v>700</v>
       </c>
       <c r="P46" s="3">
         <v>700</v>
       </c>
       <c r="Q46" s="3">
+        <v>700</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2502,46 +2610,49 @@
         <v>1400</v>
       </c>
       <c r="F48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3100</v>
       </c>
       <c r="I48" s="3">
         <v>3100</v>
       </c>
       <c r="J48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>3300</v>
       </c>
       <c r="L48" s="3">
         <v>3300</v>
       </c>
       <c r="M48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N48" s="3">
         <v>3400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>6300</v>
       </c>
       <c r="Q48" s="3">
         <v>6300</v>
       </c>
       <c r="R48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="S48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2711,7 +2831,7 @@
         <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -2735,13 +2855,16 @@
         <v>300</v>
       </c>
       <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,23 +3010,24 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
@@ -2904,34 +3035,37 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2942,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2978,18 +3112,21 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3010,19 +3147,19 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -3030,43 +3167,46 @@
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
       </c>
       <c r="L60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
       </c>
       <c r="N60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>700</v>
@@ -3075,13 +3215,16 @@
         <v>700</v>
       </c>
       <c r="Q60" s="3">
+        <v>700</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3116,7 +3259,7 @@
         <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
         <v>300</v>
@@ -3128,15 +3271,18 @@
         <v>300</v>
       </c>
       <c r="R61" s="3">
+        <v>300</v>
+      </c>
+      <c r="S61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E62" s="3">
         <v>2800</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,43 +3485,46 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E66" s="3">
         <v>3400</v>
       </c>
       <c r="F66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3400</v>
       </c>
       <c r="K66" s="3">
         <v>3400</v>
       </c>
       <c r="L66" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="M66" s="3">
         <v>3600</v>
       </c>
       <c r="N66" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="O66" s="3">
         <v>3700</v>
@@ -3375,13 +3533,16 @@
         <v>3700</v>
       </c>
       <c r="Q66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R66" s="3">
         <v>3500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-61300</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-61200</v>
       </c>
       <c r="F72" s="3">
         <v>-61200</v>
       </c>
       <c r="G72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-58900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-58700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-58900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-58800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-58700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-58500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-58400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-55500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-55400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-55300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-55100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-55800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2300</v>
-      </c>
-      <c r="E76" s="3">
-        <v>2400</v>
       </c>
       <c r="F76" s="3">
         <v>2400</v>
       </c>
       <c r="G76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H76" s="3">
         <v>4700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>500</v>
       </c>
       <c r="L76" s="3">
         <v>500</v>
       </c>
       <c r="M76" s="3">
+        <v>500</v>
+      </c>
+      <c r="N76" s="3">
         <v>600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,49 +4159,52 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4046,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -4064,19 +4263,22 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
-        <v>100</v>
-      </c>
       <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>700</v>
       </c>
-      <c r="R83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4337,46 +4554,49 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>400</v>
       </c>
       <c r="Q89" s="3">
+        <v>400</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,22 +4615,23 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -4427,8 +4648,8 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4440,13 +4661,16 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,32 +4772,35 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3">
         <v>-4000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4590,13 +4820,16 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>700</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4836,22 +5082,22 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>4400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4860,13 +5106,16 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4927,25 +5179,25 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -4954,15 +5206,18 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>GBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,94 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -760,16 +764,16 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
@@ -784,33 +788,36 @@
         <v>200</v>
       </c>
       <c r="P8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>200</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
@@ -819,16 +826,16 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
@@ -837,39 +844,42 @@
         <v>300</v>
       </c>
       <c r="P9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>-100</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>-100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -881,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>-100</v>
@@ -896,13 +906,16 @@
         <v>-100</v>
       </c>
       <c r="R10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S10" s="3">
         <v>-400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,23 +1059,23 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1063,11 +1083,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>2600</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>-900</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,82 +1178,86 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>2600</v>
-      </c>
       <c r="H17" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-200</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-2500</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
@@ -1238,28 +1268,31 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1312,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>100</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1297,16 +1331,16 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1315,78 +1349,84 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-100</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="S21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,32 +1814,35 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +1982,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-100</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -1933,16 +2003,16 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1951,78 +2021,84 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>2200</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>2200</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2245,22 +2332,22 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>300</v>
       </c>
       <c r="L41" s="3">
         <v>300</v>
       </c>
       <c r="M41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N41" s="3">
         <v>400</v>
@@ -2272,16 +2359,19 @@
         <v>400</v>
       </c>
       <c r="Q41" s="3">
+        <v>400</v>
+      </c>
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,40 +2423,43 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4200</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,19 +2535,22 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2463,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2478,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2487,13 +2586,16 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,52 +2603,55 @@
         <v>3800</v>
       </c>
       <c r="E46" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="F46" s="3">
         <v>4100</v>
       </c>
       <c r="G46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H46" s="3">
         <v>4300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4500</v>
-      </c>
-      <c r="K46" s="3">
-        <v>400</v>
       </c>
       <c r="L46" s="3">
         <v>400</v>
       </c>
       <c r="M46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>500</v>
       </c>
       <c r="O46" s="3">
+        <v>500</v>
+      </c>
+      <c r="P46" s="3">
         <v>600</v>
-      </c>
-      <c r="P46" s="3">
-        <v>700</v>
       </c>
       <c r="Q46" s="3">
         <v>700</v>
       </c>
       <c r="R46" s="3">
+        <v>700</v>
+      </c>
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,13 +2703,16 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
         <v>1400</v>
@@ -2613,46 +2721,49 @@
         <v>1400</v>
       </c>
       <c r="G48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3100</v>
       </c>
       <c r="J48" s="3">
         <v>3100</v>
       </c>
       <c r="K48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L48" s="3">
         <v>3200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>3300</v>
       </c>
       <c r="M48" s="3">
         <v>3300</v>
       </c>
       <c r="N48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O48" s="3">
         <v>3400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>6300</v>
       </c>
       <c r="R48" s="3">
         <v>6300</v>
       </c>
       <c r="S48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="T48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2825,7 +2945,7 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -2834,7 +2954,7 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -2858,13 +2978,16 @@
         <v>300</v>
       </c>
       <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,26 +3141,27 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
@@ -3038,34 +3169,37 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3079,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -3115,21 +3249,24 @@
         <v>100</v>
       </c>
       <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3150,19 +3287,19 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3170,46 +3307,49 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
-        <v>400</v>
-      </c>
       <c r="G60" s="3">
+        <v>300</v>
+      </c>
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
-        <v>100</v>
-      </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
       </c>
       <c r="M60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
       </c>
       <c r="O60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>700</v>
@@ -3218,13 +3358,16 @@
         <v>700</v>
       </c>
       <c r="R60" s="3">
+        <v>700</v>
+      </c>
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3262,7 +3405,7 @@
         <v>200</v>
       </c>
       <c r="O61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P61" s="3">
         <v>300</v>
@@ -3274,24 +3417,27 @@
         <v>300</v>
       </c>
       <c r="S61" s="3">
+        <v>300</v>
+      </c>
+      <c r="T61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>2700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2800</v>
       </c>
       <c r="F62" s="3">
         <v>2800</v>
       </c>
       <c r="G62" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H62" s="3">
         <v>2800</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,46 +3643,49 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3400</v>
       </c>
       <c r="F66" s="3">
         <v>3400</v>
       </c>
       <c r="G66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3400</v>
       </c>
       <c r="L66" s="3">
         <v>3400</v>
       </c>
       <c r="M66" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="N66" s="3">
         <v>3600</v>
       </c>
       <c r="O66" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="P66" s="3">
         <v>3700</v>
@@ -3536,13 +3694,16 @@
         <v>3700</v>
       </c>
       <c r="R66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S66" s="3">
         <v>3500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-61500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-61300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-61200</v>
       </c>
       <c r="G72" s="3">
         <v>-61200</v>
       </c>
       <c r="H72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-58900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-58700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-58900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-58800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-58700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-58500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-58400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-55500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-55400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-55300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-55100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-55800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>2400</v>
       </c>
       <c r="G76" s="3">
         <v>2400</v>
       </c>
       <c r="H76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I76" s="3">
         <v>4700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>500</v>
       </c>
       <c r="M76" s="3">
         <v>500</v>
       </c>
       <c r="N76" s="3">
+        <v>500</v>
+      </c>
+      <c r="O76" s="3">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>2200</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,16 +4422,17 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4248,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4266,19 +4465,22 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
-        <v>100</v>
-      </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>700</v>
       </c>
-      <c r="S83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,13 +4756,16 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4557,46 +4774,49 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>400</v>
       </c>
       <c r="R89" s="3">
+        <v>400</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,17 +4848,17 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -4651,8 +4872,8 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4664,13 +4885,16 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4786,24 +5016,24 @@
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4823,13 +5053,16 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>700</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,13 +5304,16 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5085,22 +5331,22 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>4400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5109,13 +5355,16 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-700</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5182,25 +5434,25 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5209,15 +5461,18 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>GBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,19 +765,19 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -779,7 +786,7 @@
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
@@ -791,101 +798,113 @@
         <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>800</v>
+      </c>
+      <c r="V8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>300</v>
-      </c>
       <c r="O9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
       </c>
       <c r="Q9" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="R9" s="3">
         <v>300</v>
       </c>
       <c r="S9" s="3">
+        <v>500</v>
+      </c>
+      <c r="T9" s="3">
+        <v>300</v>
+      </c>
+      <c r="U9" s="3">
         <v>1200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-100</v>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -894,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>-100</v>
@@ -909,13 +928,19 @@
         <v>-100</v>
       </c>
       <c r="S10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U10" s="3">
         <v>-400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,50 +1101,56 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2600</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>-900</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,91 +1230,99 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
@@ -1271,28 +1330,34 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2800</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,19 +1378,21 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -1334,99 +1401,111 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2700</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>700</v>
       </c>
-      <c r="T21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1560,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>100</v>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,37 +1932,43 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>2100</v>
       </c>
-      <c r="E29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-2300</v>
       </c>
-      <c r="I29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,19 +2118,25 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3">
-        <v>-100</v>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
@@ -2006,99 +2145,111 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3">
         <v>2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3">
         <v>2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,13 +2485,15 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2335,25 +2508,25 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
-      </c>
-      <c r="N41" s="3">
-        <v>400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>400</v>
       </c>
       <c r="P41" s="3">
         <v>400</v>
@@ -2362,16 +2535,22 @@
         <v>400</v>
       </c>
       <c r="R41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T41" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,46 +2605,52 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>3600</v>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E43" s="3">
         <v>3700</v>
       </c>
       <c r="F43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H43" s="3">
         <v>4000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4300</v>
       </c>
       <c r="J43" s="3">
         <v>4200</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>4300</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,19 +2729,25 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>100</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2565,93 +2762,105 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>3800</v>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E46" s="3">
         <v>3800</v>
       </c>
       <c r="F46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H46" s="3">
         <v>4100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>4700</v>
       </c>
       <c r="K46" s="3">
         <v>4500</v>
       </c>
       <c r="L46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M46" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
-      </c>
-      <c r="R46" s="3">
-        <v>700</v>
-      </c>
-      <c r="S46" s="3">
-        <v>400</v>
       </c>
       <c r="T46" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>400</v>
+      </c>
+      <c r="V46" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,64 +2915,76 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
-        <v>1400</v>
-      </c>
       <c r="F48" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>1400</v>
       </c>
       <c r="H48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>6300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,13 +3163,19 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>200</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -2945,22 +3184,22 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -2981,13 +3220,19 @@
         <v>300</v>
       </c>
       <c r="S52" s="3">
+        <v>300</v>
+      </c>
+      <c r="T52" s="3">
+        <v>300</v>
+      </c>
+      <c r="U52" s="3">
         <v>400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3">
         <v>4600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G54" s="3">
         <v>5400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>7900</v>
-      </c>
-      <c r="J54" s="3">
-        <v>8100</v>
       </c>
       <c r="K54" s="3">
         <v>7900</v>
       </c>
       <c r="L54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M54" s="3">
+        <v>7900</v>
+      </c>
+      <c r="N54" s="3">
         <v>3800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,72 +3401,80 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
+        <v>600</v>
+      </c>
+      <c r="T57" s="3">
+        <v>500</v>
+      </c>
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3216,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -3252,15 +3519,21 @@
         <v>100</v>
       </c>
       <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3272,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -3290,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3305,77 +3578,89 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
       </c>
       <c r="H60" s="3">
+        <v>500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
-        <v>100</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
-      </c>
-      <c r="P60" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>700</v>
       </c>
       <c r="R60" s="3">
         <v>700</v>
       </c>
       <c r="S60" s="3">
+        <v>700</v>
+      </c>
+      <c r="T60" s="3">
+        <v>700</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -3408,10 +3693,10 @@
         <v>200</v>
       </c>
       <c r="P61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R61" s="3">
         <v>300</v>
@@ -3420,30 +3705,36 @@
         <v>300</v>
       </c>
       <c r="T61" s="3">
+        <v>300</v>
+      </c>
+      <c r="U61" s="3">
+        <v>300</v>
+      </c>
+      <c r="V61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>2700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2900</v>
       </c>
       <c r="H62" s="3">
         <v>2800</v>
       </c>
       <c r="I62" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J62" s="3">
         <v>2800</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V62" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>300</v>
+      </c>
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3200</v>
       </c>
       <c r="K66" s="3">
         <v>3100</v>
       </c>
       <c r="L66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3700</v>
       </c>
       <c r="R66" s="3">
         <v>3700</v>
       </c>
       <c r="S66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="T66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="U66" s="3">
         <v>3500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-59300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-61500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-61300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-61200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-61200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-58700</v>
       </c>
       <c r="K72" s="3">
         <v>-58900</v>
       </c>
       <c r="L72" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="N72" s="3">
         <v>-58800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-58700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-58500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-58400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-55500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-55400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-55300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-55100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-55800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
         <v>4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G76" s="3">
         <v>2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="3">
         <v>2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,22 +4818,24 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4450,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -4468,19 +4865,25 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
-        <v>100</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
         <v>700</v>
       </c>
-      <c r="T83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4851,20 +5292,20 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -4875,11 +5316,11 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4888,13 +5329,19 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,41 +5458,47 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
+      <c r="E94" s="3">
+        <v>500</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-4000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5056,13 +5515,19 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>700</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,20 +5792,26 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5334,37 +5825,43 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>4400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-700</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5437,42 +5940,48 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>GBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,34 +766,34 @@
         <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
@@ -804,19 +808,22 @@
         <v>200</v>
       </c>
       <c r="S8" s="3">
+        <v>200</v>
+      </c>
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,17 +836,17 @@
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="3">
-        <v>200</v>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
@@ -848,16 +855,16 @@
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
@@ -866,19 +873,22 @@
         <v>300</v>
       </c>
       <c r="S9" s="3">
+        <v>300</v>
+      </c>
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -891,23 +901,23 @@
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
-        <v>-100</v>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H10" s="3">
         <v>-100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3">
-        <v>-100</v>
-      </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -919,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>-100</v>
@@ -934,13 +944,16 @@
         <v>-100</v>
       </c>
       <c r="U10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V10" s="3">
         <v>-400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1107,23 +1127,23 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1131,26 +1151,29 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>2600</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>-900</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,84 +1258,88 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
+      <c r="E17" s="3">
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
+      <c r="E18" s="3">
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1321,11 +1351,11 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
@@ -1336,28 +1366,31 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2800</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,23 +1413,24 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
+      <c r="E20" s="3">
+        <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
@@ -1407,16 +1441,16 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1425,33 +1459,36 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="E21" s="3">
+        <v>100</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1460,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -1469,43 +1506,46 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2700</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>700</v>
       </c>
-      <c r="V21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,22 +1606,25 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1593,43 +1636,46 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,22 +1801,25 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1779,57 +1831,60 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1841,43 +1896,46 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-2800</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1950,28 +2011,28 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>2100</v>
       </c>
-      <c r="G29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>-100</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2300</v>
       </c>
-      <c r="K29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="L29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,23 +2191,26 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
+      <c r="E32" s="3">
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-100</v>
-      </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
@@ -2151,16 +2221,16 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2169,87 +2239,93 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-2800</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-2800</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,13 +2573,14 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
+      <c r="D41" s="3">
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2514,22 +2601,22 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
-      </c>
-      <c r="N41" s="3">
-        <v>300</v>
       </c>
       <c r="O41" s="3">
         <v>300</v>
       </c>
       <c r="P41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q41" s="3">
         <v>400</v>
@@ -2541,16 +2628,19 @@
         <v>400</v>
       </c>
       <c r="T41" s="3">
+        <v>400</v>
+      </c>
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,49 +2701,52 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>3700</v>
       </c>
       <c r="E43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F43" s="3">
         <v>3700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4200</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,22 +2831,25 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2768,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>4100</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2783,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2792,21 +2891,24 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
+      <c r="D46" s="3">
+        <v>4000</v>
       </c>
       <c r="E46" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F46" s="3">
         <v>3800</v>
@@ -2815,52 +2917,55 @@
         <v>3800</v>
       </c>
       <c r="H46" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="I46" s="3">
         <v>4100</v>
       </c>
       <c r="J46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K46" s="3">
         <v>4300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>400</v>
       </c>
       <c r="P46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>500</v>
       </c>
       <c r="R46" s="3">
+        <v>500</v>
+      </c>
+      <c r="S46" s="3">
         <v>600</v>
-      </c>
-      <c r="S46" s="3">
-        <v>700</v>
       </c>
       <c r="T46" s="3">
         <v>700</v>
       </c>
       <c r="U46" s="3">
+        <v>700</v>
+      </c>
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,13 +3026,16 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
+      <c r="D48" s="3">
+        <v>700</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
@@ -2936,7 +3044,7 @@
         <v>700</v>
       </c>
       <c r="G48" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="H48" s="3">
         <v>1400</v>
@@ -2945,46 +3053,49 @@
         <v>1400</v>
       </c>
       <c r="J48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>3100</v>
       </c>
       <c r="M48" s="3">
         <v>3100</v>
       </c>
       <c r="N48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O48" s="3">
         <v>3200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>3300</v>
       </c>
       <c r="P48" s="3">
         <v>3300</v>
       </c>
       <c r="Q48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R48" s="3">
         <v>3400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>6300</v>
       </c>
       <c r="U48" s="3">
         <v>6300</v>
       </c>
       <c r="V48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="W48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,16 +3286,19 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -3190,10 +3310,10 @@
         <v>200</v>
       </c>
       <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
         <v>1100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -3202,7 +3322,7 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
@@ -3226,13 +3346,16 @@
         <v>300</v>
       </c>
       <c r="U52" s="3">
+        <v>300</v>
+      </c>
+      <c r="V52" s="3">
         <v>400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
+      <c r="D54" s="3">
+        <v>4800</v>
       </c>
       <c r="E54" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F54" s="3">
         <v>4600</v>
       </c>
       <c r="G54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H54" s="3">
         <v>5400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3412,26 +3543,26 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
@@ -3439,34 +3570,37 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3477,7 +3611,7 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3489,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3525,10 +3659,13 @@
         <v>100</v>
       </c>
       <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,19 +3673,19 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -3569,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3601,43 +3741,43 @@
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
-        <v>100</v>
-      </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
       <c r="P60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>600</v>
       </c>
       <c r="R60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>700</v>
@@ -3646,13 +3786,16 @@
         <v>700</v>
       </c>
       <c r="U60" s="3">
+        <v>700</v>
+      </c>
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,7 +3806,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -3699,7 +3842,7 @@
         <v>200</v>
       </c>
       <c r="R61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S61" s="3">
         <v>300</v>
@@ -3711,33 +3854,36 @@
         <v>300</v>
       </c>
       <c r="V61" s="3">
+        <v>300</v>
+      </c>
+      <c r="W61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2800</v>
       </c>
       <c r="K62" s="3">
         <v>2800</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3973,43 +4131,43 @@
         <v>300</v>
       </c>
       <c r="F66" s="3">
+        <v>300</v>
+      </c>
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3400</v>
       </c>
       <c r="I66" s="3">
         <v>3400</v>
       </c>
       <c r="J66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3400</v>
       </c>
       <c r="O66" s="3">
         <v>3400</v>
       </c>
       <c r="P66" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="Q66" s="3">
         <v>3600</v>
       </c>
       <c r="R66" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="S66" s="3">
         <v>3700</v>
@@ -4018,13 +4176,16 @@
         <v>3700</v>
       </c>
       <c r="U66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="V66" s="3">
         <v>3500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4304,61 +4478,64 @@
         <v>-59200</v>
       </c>
       <c r="E72" s="3">
-        <v>-59300</v>
+        <v>-59200</v>
       </c>
       <c r="F72" s="3">
         <v>-59300</v>
       </c>
       <c r="G72" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-61500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-61300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-61200</v>
       </c>
       <c r="J72" s="3">
         <v>-61200</v>
       </c>
       <c r="K72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="L72" s="3">
         <v>-58900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-58700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-58900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-58800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-58700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-58500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-58400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-55500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-55400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-55300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-55100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-55800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E76" s="3">
         <v>4400</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G76" s="3">
         <v>4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2400</v>
       </c>
       <c r="J76" s="3">
         <v>2400</v>
       </c>
       <c r="K76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L76" s="3">
         <v>4700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>500</v>
       </c>
       <c r="P76" s="3">
         <v>500</v>
       </c>
       <c r="Q76" s="3">
+        <v>500</v>
+      </c>
+      <c r="R76" s="3">
         <v>600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-2800</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,25 +5018,26 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4853,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -4871,19 +5070,22 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
-        <v>100</v>
-      </c>
       <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
         <v>700</v>
       </c>
-      <c r="V83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,23 +5406,26 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -5216,46 +5433,49 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>400</v>
       </c>
       <c r="U89" s="3">
+        <v>400</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5298,17 +5519,17 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -5322,8 +5543,8 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5335,13 +5556,16 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,44 +5691,47 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-4000</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5521,13 +5751,16 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>700</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5807,14 +6053,14 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5831,22 +6077,22 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>4400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5855,13 +6101,16 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-700</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,13 +6171,16 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5946,25 +6198,25 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5973,15 +6225,18 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>GBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -787,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
@@ -811,19 +815,22 @@
         <v>200</v>
       </c>
       <c r="T8" s="3">
+        <v>200</v>
+      </c>
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,17 +846,17 @@
       <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="3">
-        <v>200</v>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
@@ -858,16 +865,16 @@
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
         <v>300</v>
@@ -876,19 +883,22 @@
         <v>300</v>
       </c>
       <c r="T9" s="3">
+        <v>300</v>
+      </c>
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -904,23 +914,23 @@
       <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3">
-        <v>-100</v>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I10" s="3">
         <v>-200</v>
       </c>
       <c r="J10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="L10" s="3">
-        <v>-100</v>
-      </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -932,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>-100</v>
@@ -947,13 +957,16 @@
         <v>-100</v>
       </c>
       <c r="V10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W10" s="3">
         <v>-400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1130,23 +1150,23 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1154,26 +1174,29 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>2600</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>-900</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1277,7 +1304,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1289,43 +1316,46 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1342,55 +1372,58 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1426,14 +1460,14 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
@@ -1444,16 +1478,16 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1462,25 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1491,16 +1528,16 @@
         <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1509,43 +1546,46 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2700</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>700</v>
       </c>
-      <c r="W21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1639,43 +1682,46 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>100</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3">
-        <v>-100</v>
-      </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,19 +1865,19 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -1834,43 +1886,46 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-2800</v>
       </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,19 +1933,19 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -1899,43 +1954,46 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-2800</v>
       </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2014,28 +2075,28 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>2100</v>
       </c>
-      <c r="H29" s="3">
-        <v>-100</v>
-      </c>
       <c r="I29" s="3">
         <v>-100</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2300</v>
       </c>
-      <c r="L29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,14 +2276,14 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
@@ -2224,16 +2294,16 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2242,25 +2312,28 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,64 +2341,67 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,134 +2477,140 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,17 +2660,18 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2604,22 +2691,22 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>300</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
       </c>
       <c r="Q41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R41" s="3">
         <v>400</v>
@@ -2631,16 +2718,19 @@
         <v>400</v>
       </c>
       <c r="U41" s="3">
+        <v>400</v>
+      </c>
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,52 +2794,55 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4200</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,16 +2942,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2870,13 +2969,13 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>4100</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2885,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2894,24 +2993,27 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E46" s="3">
         <v>4000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>3800</v>
       </c>
       <c r="G46" s="3">
         <v>3800</v>
@@ -2920,52 +3022,55 @@
         <v>3800</v>
       </c>
       <c r="I46" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="J46" s="3">
         <v>4100</v>
       </c>
       <c r="K46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L46" s="3">
         <v>4300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4500</v>
-      </c>
-      <c r="O46" s="3">
-        <v>400</v>
       </c>
       <c r="P46" s="3">
         <v>400</v>
       </c>
       <c r="Q46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>500</v>
       </c>
       <c r="S46" s="3">
+        <v>500</v>
+      </c>
+      <c r="T46" s="3">
         <v>600</v>
-      </c>
-      <c r="T46" s="3">
-        <v>700</v>
       </c>
       <c r="U46" s="3">
         <v>700</v>
       </c>
       <c r="V46" s="3">
+        <v>700</v>
+      </c>
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,13 +3134,16 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
@@ -3047,7 +3155,7 @@
         <v>700</v>
       </c>
       <c r="H48" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="I48" s="3">
         <v>1400</v>
@@ -3056,46 +3164,49 @@
         <v>1400</v>
       </c>
       <c r="K48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>3100</v>
       </c>
       <c r="N48" s="3">
         <v>3100</v>
       </c>
       <c r="O48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P48" s="3">
         <v>3200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>3300</v>
       </c>
       <c r="Q48" s="3">
         <v>3300</v>
       </c>
       <c r="R48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S48" s="3">
         <v>3400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6200</v>
-      </c>
-      <c r="U48" s="3">
-        <v>6300</v>
       </c>
       <c r="V48" s="3">
         <v>6300</v>
       </c>
       <c r="W48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="X48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,19 +3406,22 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -3313,10 +3433,10 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -3325,7 +3445,7 @@
         <v>200</v>
       </c>
       <c r="N52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
@@ -3349,13 +3469,16 @@
         <v>300</v>
       </c>
       <c r="V52" s="3">
+        <v>300</v>
+      </c>
+      <c r="W52" s="3">
         <v>400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4600</v>
       </c>
       <c r="G54" s="3">
         <v>4600</v>
       </c>
       <c r="H54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I54" s="3">
         <v>5400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,13 +3664,14 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3552,20 +3683,20 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
@@ -3573,39 +3704,42 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -3614,7 +3748,7 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3626,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -3662,15 +3796,18 @@
         <v>100</v>
       </c>
       <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3682,13 +3819,13 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3709,19 +3846,19 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
@@ -3729,13 +3866,16 @@
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -3744,43 +3884,43 @@
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
       <c r="Q60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>600</v>
       </c>
       <c r="S60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T60" s="3">
         <v>700</v>
@@ -3789,18 +3929,21 @@
         <v>700</v>
       </c>
       <c r="V60" s="3">
+        <v>700</v>
+      </c>
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -3809,7 +3952,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -3845,7 +3988,7 @@
         <v>200</v>
       </c>
       <c r="S61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T61" s="3">
         <v>300</v>
@@ -3857,10 +4000,13 @@
         <v>300</v>
       </c>
       <c r="W61" s="3">
+        <v>300</v>
+      </c>
+      <c r="X61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3870,23 +4016,23 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2800</v>
       </c>
       <c r="L62" s="3">
         <v>2800</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,13 +4274,16 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
@@ -4134,43 +4292,43 @@
         <v>300</v>
       </c>
       <c r="G66" s="3">
+        <v>300</v>
+      </c>
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3400</v>
       </c>
       <c r="J66" s="3">
         <v>3400</v>
       </c>
       <c r="K66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>3400</v>
       </c>
       <c r="P66" s="3">
         <v>3400</v>
       </c>
       <c r="Q66" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="R66" s="3">
         <v>3600</v>
       </c>
       <c r="S66" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="T66" s="3">
         <v>3700</v>
@@ -4179,13 +4337,16 @@
         <v>3700</v>
       </c>
       <c r="V66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="W66" s="3">
         <v>3500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4481,61 +4655,64 @@
         <v>-59200</v>
       </c>
       <c r="F72" s="3">
-        <v>-59300</v>
+        <v>-59200</v>
       </c>
       <c r="G72" s="3">
         <v>-59300</v>
       </c>
       <c r="H72" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-61500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-61300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-61200</v>
       </c>
       <c r="K72" s="3">
         <v>-61200</v>
       </c>
       <c r="L72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="M72" s="3">
         <v>-58900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-58700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-58900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-58800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-58700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-58500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-58400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-55500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-55400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-55300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-55100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-55800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>4500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2400</v>
       </c>
       <c r="K76" s="3">
         <v>2400</v>
       </c>
       <c r="L76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M76" s="3">
         <v>4700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>500</v>
       </c>
       <c r="Q76" s="3">
         <v>500</v>
       </c>
       <c r="R76" s="3">
+        <v>500</v>
+      </c>
+      <c r="S76" s="3">
         <v>600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,64 +5133,67 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5034,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5055,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -5073,19 +5272,22 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
-        <v>100</v>
-      </c>
       <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
         <v>700</v>
       </c>
-      <c r="W83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,26 +5623,29 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -5436,46 +5653,49 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>400</v>
       </c>
       <c r="V89" s="3">
+        <v>400</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5522,17 +5743,17 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -5546,8 +5767,8 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5559,13 +5780,16 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5705,11 +5935,11 @@
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>500</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
@@ -5717,24 +5947,24 @@
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-4000</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5754,13 +5984,16 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>700</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,26 +6287,29 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -6080,22 +6326,22 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>4400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6104,13 +6350,16 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-700</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,17 +6423,20 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -6201,25 +6453,25 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -6228,15 +6480,18 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>GBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
@@ -806,7 +813,7 @@
         <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
@@ -818,19 +825,25 @@
         <v>200</v>
       </c>
       <c r="U8" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="V8" s="3">
         <v>200</v>
       </c>
       <c r="W8" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="X8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -849,56 +862,62 @@
       <c r="H9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
-        <v>300</v>
-      </c>
       <c r="S9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>300</v>
       </c>
       <c r="U9" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="V9" s="3">
         <v>300</v>
       </c>
       <c r="W9" s="3">
+        <v>500</v>
+      </c>
+      <c r="X9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y9" s="3">
         <v>1200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,14 +936,14 @@
       <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
         <v>-200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-100</v>
       </c>
       <c r="L10" s="3">
         <v>-200</v>
@@ -933,10 +952,10 @@
         <v>-100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -945,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>-100</v>
@@ -960,13 +979,19 @@
         <v>-100</v>
       </c>
       <c r="W10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>-400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1153,50 +1192,56 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>2600</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-900</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1337,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1319,43 +1372,49 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1387,14 +1446,14 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
@@ -1402,28 +1461,34 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2800</v>
       </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>200</v>
       </c>
-      <c r="X18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,13 +1524,13 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1472,7 +1539,7 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1481,43 +1548,49 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1598,73 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-2700</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-100</v>
-      </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
       <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>700</v>
       </c>
-      <c r="X21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,19 +1731,25 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1673,55 +1758,61 @@
         <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-2800</v>
       </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,19 +1953,25 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1877,66 +1980,72 @@
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-2800</v>
       </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1945,55 +2054,61 @@
         <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-2800</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,13 +2175,19 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2078,31 +2199,31 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>2100</v>
       </c>
-      <c r="I29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-100</v>
-      </c>
       <c r="K29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2300</v>
       </c>
-      <c r="M29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,13 +2412,13 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -2288,7 +2427,7 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -2297,111 +2436,123 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-2800</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W33" s="3">
-        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-2800</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W35" s="3">
-        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,22 +2832,24 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>200</v>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E41" s="3">
         <v>300</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2694,25 +2867,25 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
-      </c>
-      <c r="R41" s="3">
-        <v>400</v>
-      </c>
-      <c r="S41" s="3">
-        <v>400</v>
       </c>
       <c r="T41" s="3">
         <v>400</v>
@@ -2721,16 +2894,22 @@
         <v>400</v>
       </c>
       <c r="V41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="X41" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,16 +2976,22 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
         <v>3600</v>
-      </c>
-      <c r="E43" s="3">
-        <v>3700</v>
       </c>
       <c r="F43" s="3">
         <v>3600</v>
@@ -2821,34 +3006,34 @@
         <v>3700</v>
       </c>
       <c r="J43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>4300</v>
       </c>
       <c r="N43" s="3">
         <v>4200</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>4300</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
@@ -2865,8 +3050,14 @@
       <c r="X43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,31 +3124,37 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2972,105 +3169,117 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>4100</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>3900</v>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="F46" s="3">
         <v>3900</v>
       </c>
       <c r="G46" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="H46" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="I46" s="3">
         <v>3800</v>
       </c>
       <c r="J46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L46" s="3">
         <v>4100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>4500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>4700</v>
       </c>
       <c r="O46" s="3">
         <v>4500</v>
       </c>
       <c r="P46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
-      </c>
-      <c r="V46" s="3">
-        <v>700</v>
-      </c>
-      <c r="W46" s="3">
-        <v>400</v>
       </c>
       <c r="X46" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,19 +3346,25 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
-        <v>700</v>
-      </c>
       <c r="F48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -3158,55 +3373,61 @@
         <v>700</v>
       </c>
       <c r="I48" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="J48" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>1400</v>
       </c>
       <c r="L48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>6100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>6200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>6300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>6300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,25 +3642,31 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -3436,22 +3675,22 @@
         <v>200</v>
       </c>
       <c r="K52" s="3">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
       </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
@@ -3472,13 +3711,19 @@
         <v>300</v>
       </c>
       <c r="W52" s="3">
+        <v>300</v>
+      </c>
+      <c r="X52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y52" s="3">
         <v>400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3">
         <v>4500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G54" s="3">
         <v>4800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>7900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>8100</v>
       </c>
       <c r="O54" s="3">
         <v>7900</v>
       </c>
       <c r="P54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>7900</v>
+      </c>
+      <c r="R54" s="3">
         <v>3800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>7000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>7100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>7300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>7200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,13 +3924,15 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3686,75 +3947,81 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
       </c>
       <c r="U57" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="V57" s="3">
         <v>500</v>
       </c>
       <c r="W57" s="3">
+        <v>600</v>
+      </c>
+      <c r="X57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3763,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3799,18 +4066,24 @@
         <v>100</v>
       </c>
       <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3822,7 +4095,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3831,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3849,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3864,13 +4137,19 @@
         <v>100</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,67 +4157,73 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
+        <v>500</v>
+      </c>
+      <c r="M60" s="3">
+        <v>300</v>
+      </c>
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
-      </c>
-      <c r="T60" s="3">
-        <v>700</v>
-      </c>
-      <c r="U60" s="3">
-        <v>700</v>
       </c>
       <c r="V60" s="3">
         <v>700</v>
       </c>
       <c r="W60" s="3">
+        <v>700</v>
+      </c>
+      <c r="X60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,19 +4231,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -3991,10 +4276,10 @@
         <v>200</v>
       </c>
       <c r="T61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V61" s="3">
         <v>300</v>
@@ -4003,42 +4288,48 @@
         <v>300</v>
       </c>
       <c r="X61" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>2700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2900</v>
       </c>
       <c r="L62" s="3">
         <v>2800</v>
       </c>
       <c r="M62" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="N62" s="3">
         <v>2800</v>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>100</v>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
       </c>
       <c r="H66" s="3">
+        <v>300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>300</v>
+      </c>
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3200</v>
       </c>
       <c r="O66" s="3">
         <v>3100</v>
       </c>
       <c r="P66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R66" s="3">
         <v>3400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3600</v>
-      </c>
-      <c r="T66" s="3">
-        <v>3700</v>
-      </c>
-      <c r="U66" s="3">
-        <v>3700</v>
       </c>
       <c r="V66" s="3">
         <v>3700</v>
       </c>
       <c r="W66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="X66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Y66" s="3">
         <v>3500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4984,14 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4658,61 +5005,67 @@
         <v>-59200</v>
       </c>
       <c r="G72" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-59300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-59300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-61500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-61300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-61200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-61200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-58700</v>
       </c>
       <c r="O72" s="3">
         <v>-58900</v>
       </c>
       <c r="P72" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="R72" s="3">
         <v>-58800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-58700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-58500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-58400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-55500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-55400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-55300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-55100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-55800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5280,14 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4924,67 +5295,73 @@
         <v>4400</v>
       </c>
       <c r="E76" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F76" s="3">
         <v>4400</v>
       </c>
       <c r="G76" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H76" s="3">
         <v>4400</v>
       </c>
       <c r="I76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-2800</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W81" s="3">
-        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5236,13 +5633,13 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5257,10 +5654,10 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -5275,19 +5672,25 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
       </c>
-      <c r="V83" s="3">
-        <v>100</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
         <v>700</v>
       </c>
-      <c r="X83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6053,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,67 +6068,73 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,46 +6159,48 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -5770,11 +6211,11 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5783,13 +6224,19 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,53 +6377,59 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
+      <c r="E94" s="3">
+        <v>100</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-4000</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5987,13 +6446,19 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>700</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,32 +6775,38 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6329,37 +6820,43 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>4400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-700</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6923,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6435,14 +6938,14 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -6456,42 +6959,48 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>GBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -807,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
@@ -831,19 +835,22 @@
         <v>200</v>
       </c>
       <c r="W8" s="3">
+        <v>200</v>
+      </c>
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,17 +875,17 @@
       <c r="J9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="3">
-        <v>200</v>
+      <c r="K9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
@@ -887,16 +894,16 @@
         <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>300</v>
@@ -905,19 +912,22 @@
         <v>300</v>
       </c>
       <c r="W9" s="3">
+        <v>300</v>
+      </c>
+      <c r="X9" s="3">
         <v>500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -942,23 +952,23 @@
       <c r="J10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="3">
-        <v>-200</v>
+      <c r="K10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L10" s="3">
         <v>-200</v>
       </c>
       <c r="M10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O10" s="3">
         <v>-200</v>
       </c>
-      <c r="O10" s="3">
-        <v>-100</v>
-      </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -970,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
         <v>-100</v>
@@ -985,13 +995,16 @@
         <v>-100</v>
       </c>
       <c r="Y10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z10" s="3">
         <v>-400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1198,23 +1218,23 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1222,26 +1242,29 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>2600</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-900</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1378,43 +1405,46 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,11 +1482,11 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
@@ -1467,28 +1497,31 @@
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2800</v>
       </c>
-      <c r="V18" s="3">
-        <v>-100</v>
-      </c>
       <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>200</v>
       </c>
-      <c r="Z18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1530,20 +1564,20 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
@@ -1554,16 +1588,16 @@
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1572,25 +1606,28 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,28 +1635,28 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -1628,43 +1665,46 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-2700</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>700</v>
       </c>
-      <c r="Z21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,37 +1777,40 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -1776,43 +1819,46 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-2800</v>
       </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,37 +2008,40 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -1998,72 +2050,75 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-2800</v>
       </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -2072,43 +2127,46 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-2800</v>
       </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,16 +2239,19 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2205,28 +2266,28 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>2100</v>
       </c>
-      <c r="K29" s="3">
-        <v>-100</v>
-      </c>
       <c r="L29" s="3">
         <v>-100</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2300</v>
       </c>
-      <c r="O29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="P29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2418,20 +2488,20 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>-100</v>
-      </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
@@ -2442,16 +2512,16 @@
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2460,99 +2530,105 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-2800</v>
       </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-2800</v>
       </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,26 +2920,27 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
+      <c r="D41" s="3">
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>300</v>
       </c>
       <c r="F41" s="3">
+        <v>300</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2873,22 +2960,22 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
-      </c>
-      <c r="R41" s="3">
-        <v>300</v>
       </c>
       <c r="S41" s="3">
         <v>300</v>
       </c>
       <c r="T41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U41" s="3">
         <v>400</v>
@@ -2900,16 +2987,19 @@
         <v>400</v>
       </c>
       <c r="X41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
       <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,13 +3072,16 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>3500</v>
       </c>
       <c r="E43" s="3">
         <v>3600</v>
@@ -2997,46 +3090,46 @@
         <v>3600</v>
       </c>
       <c r="G43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H43" s="3">
         <v>3700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,13 +3226,16 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3148,16 +3247,16 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3175,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>4100</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3190,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3199,33 +3298,36 @@
         <v>100</v>
       </c>
       <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
+      <c r="D46" s="3">
+        <v>4000</v>
       </c>
       <c r="E46" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F46" s="3">
         <v>3800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>3800</v>
       </c>
       <c r="J46" s="3">
         <v>3800</v>
@@ -3234,52 +3336,55 @@
         <v>3800</v>
       </c>
       <c r="L46" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="M46" s="3">
         <v>4100</v>
       </c>
       <c r="N46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O46" s="3">
         <v>4300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4500</v>
-      </c>
-      <c r="R46" s="3">
-        <v>400</v>
       </c>
       <c r="S46" s="3">
         <v>400</v>
       </c>
       <c r="T46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U46" s="3">
         <v>500</v>
       </c>
       <c r="V46" s="3">
+        <v>500</v>
+      </c>
+      <c r="W46" s="3">
         <v>600</v>
-      </c>
-      <c r="W46" s="3">
-        <v>700</v>
       </c>
       <c r="X46" s="3">
         <v>700</v>
       </c>
       <c r="Y46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,13 +3457,16 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
+      <c r="D48" s="3">
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
@@ -3367,7 +3475,7 @@
         <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
@@ -3379,7 +3487,7 @@
         <v>700</v>
       </c>
       <c r="K48" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>1400</v>
@@ -3388,46 +3496,49 @@
         <v>1400</v>
       </c>
       <c r="N48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O48" s="3">
         <v>1500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>3100</v>
       </c>
       <c r="Q48" s="3">
         <v>3100</v>
       </c>
       <c r="R48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S48" s="3">
         <v>3200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>3300</v>
       </c>
       <c r="T48" s="3">
         <v>3300</v>
       </c>
       <c r="U48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="V48" s="3">
         <v>3400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6200</v>
-      </c>
-      <c r="X48" s="3">
-        <v>6300</v>
       </c>
       <c r="Y48" s="3">
         <v>6300</v>
       </c>
       <c r="Z48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="AA48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,28 +3765,31 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -3681,10 +3801,10 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
         <v>1100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
@@ -3693,7 +3813,7 @@
         <v>200</v>
       </c>
       <c r="Q52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>300</v>
@@ -3717,13 +3837,16 @@
         <v>300</v>
       </c>
       <c r="Y52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z52" s="3">
         <v>400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,13 +3919,16 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
+      <c r="D54" s="3">
+        <v>4600</v>
       </c>
       <c r="E54" s="3">
         <v>4500</v>
@@ -3811,67 +3937,70 @@
         <v>4500</v>
       </c>
       <c r="G54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H54" s="3">
         <v>4800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>4600</v>
       </c>
       <c r="J54" s="3">
         <v>4600</v>
       </c>
       <c r="K54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L54" s="3">
         <v>5400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,16 +4056,17 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -3953,20 +4084,20 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
@@ -3974,48 +4105,51 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -4024,7 +4158,7 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4036,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -4072,10 +4206,13 @@
         <v>100</v>
       </c>
       <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4086,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -4101,13 +4238,13 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -4128,19 +4265,19 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
         <v>100</v>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4163,7 +4303,7 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -4172,43 +4312,43 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
       <c r="P60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
       </c>
       <c r="T60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="U60" s="3">
         <v>600</v>
       </c>
       <c r="V60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="W60" s="3">
         <v>700</v>
@@ -4217,13 +4357,16 @@
         <v>700</v>
       </c>
       <c r="Y60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4237,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -4246,7 +4389,7 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
@@ -4282,7 +4425,7 @@
         <v>200</v>
       </c>
       <c r="V61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W61" s="3">
         <v>300</v>
@@ -4294,27 +4437,30 @@
         <v>300</v>
       </c>
       <c r="Z61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4323,16 +4469,16 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>2700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2900</v>
-      </c>
-      <c r="N62" s="3">
-        <v>2800</v>
       </c>
       <c r="O62" s="3">
         <v>2800</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,13 +4747,16 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
+      <c r="D66" s="3">
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -4607,7 +4765,7 @@
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
@@ -4616,43 +4774,43 @@
         <v>300</v>
       </c>
       <c r="J66" s="3">
+        <v>300</v>
+      </c>
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3400</v>
       </c>
       <c r="M66" s="3">
         <v>3400</v>
       </c>
       <c r="N66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3100</v>
-      </c>
-      <c r="R66" s="3">
-        <v>3400</v>
       </c>
       <c r="S66" s="3">
         <v>3400</v>
       </c>
       <c r="T66" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="U66" s="3">
         <v>3600</v>
       </c>
       <c r="V66" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="W66" s="3">
         <v>3700</v>
@@ -4661,13 +4819,16 @@
         <v>3700</v>
       </c>
       <c r="Y66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Z66" s="3">
         <v>3500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,13 +5161,16 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-59200</v>
+        <v>-59100</v>
       </c>
       <c r="E72" s="3">
         <v>-59200</v>
@@ -5011,61 +5185,64 @@
         <v>-59200</v>
       </c>
       <c r="I72" s="3">
-        <v>-59300</v>
+        <v>-59200</v>
       </c>
       <c r="J72" s="3">
         <v>-59300</v>
       </c>
       <c r="K72" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-61500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-61300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-61200</v>
       </c>
       <c r="N72" s="3">
         <v>-61200</v>
       </c>
       <c r="O72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-58900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-58700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-58900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-58800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-58700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-58500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-58400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-55500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-55400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-55300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-55100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-55800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,13 +5469,16 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E76" s="3">
         <v>4400</v>
@@ -5301,67 +5487,70 @@
         <v>4400</v>
       </c>
       <c r="G76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H76" s="3">
         <v>4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>2400</v>
       </c>
       <c r="N76" s="3">
         <v>2400</v>
       </c>
       <c r="O76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P76" s="3">
         <v>4700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>400</v>
-      </c>
-      <c r="S76" s="3">
-        <v>500</v>
       </c>
       <c r="T76" s="3">
         <v>500</v>
       </c>
       <c r="U76" s="3">
+        <v>500</v>
+      </c>
+      <c r="V76" s="3">
         <v>600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-2800</v>
       </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5639,10 +5838,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5660,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -5678,19 +5877,22 @@
         <v>100</v>
       </c>
       <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="X83" s="3">
-        <v>100</v>
-      </c>
       <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z83" s="3">
         <v>700</v>
       </c>
-      <c r="Z83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,35 +6273,38 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -6095,46 +6312,49 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
-        <v>-100</v>
-      </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>400</v>
       </c>
       <c r="Y89" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6187,23 +6408,23 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -6217,8 +6438,8 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6230,13 +6451,16 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,19 +6610,22 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>100</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
+        <v>100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
@@ -6403,11 +6633,11 @@
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -6415,24 +6645,24 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3">
         <v>-4000</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -6452,13 +6682,16 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>700</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6793,23 +7039,23 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6826,22 +7072,22 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>4400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -6850,13 +7096,16 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-700</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,13 +7178,16 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6944,11 +7196,11 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6965,25 +7217,25 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
         <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -6992,15 +7244,18 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>GBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -814,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>200</v>
@@ -838,19 +842,22 @@
         <v>200</v>
       </c>
       <c r="X8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="3">
         <v>400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -878,17 +885,17 @@
       <c r="K9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="3">
-        <v>200</v>
+      <c r="L9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
@@ -897,16 +904,16 @@
         <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
       </c>
       <c r="U9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
         <v>300</v>
@@ -915,19 +922,22 @@
         <v>300</v>
       </c>
       <c r="X9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y9" s="3">
         <v>500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,23 +965,23 @@
       <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3">
-        <v>-200</v>
+      <c r="L10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M10" s="3">
         <v>-200</v>
       </c>
       <c r="N10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P10" s="3">
         <v>-200</v>
       </c>
-      <c r="P10" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -983,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>-100</v>
@@ -998,13 +1008,16 @@
         <v>-100</v>
       </c>
       <c r="Z10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA10" s="3">
         <v>-400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1221,23 +1241,23 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1245,26 +1265,29 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>2600</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-900</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1408,48 +1435,51 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>300</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
@@ -1485,11 +1515,11 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
@@ -1500,28 +1530,31 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2800</v>
       </c>
-      <c r="W18" s="3">
-        <v>-100</v>
-      </c>
       <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>200</v>
       </c>
-      <c r="AA18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,16 +1582,17 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1567,20 +1601,20 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
@@ -1591,16 +1625,16 @@
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1609,57 +1643,60 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -1668,43 +1705,46 @@
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-2700</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>700</v>
       </c>
-      <c r="AA21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,40 +1820,43 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -1822,43 +1865,46 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-2800</v>
       </c>
-      <c r="W23" s="3">
-        <v>-100</v>
-      </c>
       <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,40 +2060,43 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -2053,75 +2105,78 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>100</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>-100</v>
-      </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-2800</v>
       </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
       <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -2130,43 +2185,46 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>100</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>-100</v>
-      </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-2800</v>
       </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
       <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2253,8 +2314,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2269,28 +2330,28 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>2100</v>
       </c>
-      <c r="L29" s="3">
-        <v>-100</v>
-      </c>
       <c r="M29" s="3">
         <v>-100</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2300</v>
       </c>
-      <c r="P29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,16 +2540,19 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -2491,20 +2561,20 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>-100</v>
-      </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
@@ -2515,16 +2585,16 @@
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2533,102 +2603,108 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>-100</v>
-      </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-2800</v>
       </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
       <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>-100</v>
-      </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-2800</v>
       </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
       <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2930,20 +3017,20 @@
         <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F41" s="3">
         <v>300</v>
       </c>
       <c r="G41" s="3">
+        <v>300</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2963,22 +3050,22 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
-      </c>
-      <c r="S41" s="3">
-        <v>300</v>
       </c>
       <c r="T41" s="3">
         <v>300</v>
       </c>
       <c r="U41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V41" s="3">
         <v>400</v>
@@ -2990,16 +3077,19 @@
         <v>400</v>
       </c>
       <c r="Y41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z41" s="3">
         <v>500</v>
       </c>
-      <c r="Z41" s="3">
-        <v>100</v>
-      </c>
       <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3084,7 +3177,7 @@
         <v>3500</v>
       </c>
       <c r="E43" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F43" s="3">
         <v>3600</v>
@@ -3093,46 +3186,46 @@
         <v>3600</v>
       </c>
       <c r="H43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I43" s="3">
         <v>3700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4200</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3250,16 +3349,16 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3277,13 +3376,13 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>4100</v>
       </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3292,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
@@ -3301,13 +3400,16 @@
         <v>100</v>
       </c>
       <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3315,22 +3417,22 @@
         <v>4000</v>
       </c>
       <c r="E46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F46" s="3">
         <v>3900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3900</v>
-      </c>
-      <c r="J46" s="3">
-        <v>3800</v>
       </c>
       <c r="K46" s="3">
         <v>3800</v>
@@ -3339,52 +3441,55 @@
         <v>3800</v>
       </c>
       <c r="M46" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="N46" s="3">
         <v>4100</v>
       </c>
       <c r="O46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P46" s="3">
         <v>4300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4500</v>
-      </c>
-      <c r="S46" s="3">
-        <v>400</v>
       </c>
       <c r="T46" s="3">
         <v>400</v>
       </c>
       <c r="U46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V46" s="3">
         <v>500</v>
       </c>
       <c r="W46" s="3">
+        <v>500</v>
+      </c>
+      <c r="X46" s="3">
         <v>600</v>
-      </c>
-      <c r="X46" s="3">
-        <v>700</v>
       </c>
       <c r="Y46" s="3">
         <v>700</v>
       </c>
       <c r="Z46" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3478,7 +3586,7 @@
         <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
@@ -3490,7 +3598,7 @@
         <v>700</v>
       </c>
       <c r="L48" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="M48" s="3">
         <v>1400</v>
@@ -3499,46 +3607,49 @@
         <v>1400</v>
       </c>
       <c r="O48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P48" s="3">
         <v>1500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>3100</v>
       </c>
       <c r="R48" s="3">
         <v>3100</v>
       </c>
       <c r="S48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T48" s="3">
         <v>3200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>3300</v>
       </c>
       <c r="U48" s="3">
         <v>3300</v>
       </c>
       <c r="V48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="W48" s="3">
         <v>3400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6200</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>6300</v>
       </c>
       <c r="Z48" s="3">
         <v>6300</v>
       </c>
       <c r="AA48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="AB48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3779,20 +3899,20 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -3804,10 +3924,10 @@
         <v>200</v>
       </c>
       <c r="N52" s="3">
+        <v>200</v>
+      </c>
+      <c r="O52" s="3">
         <v>1100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
@@ -3816,7 +3936,7 @@
         <v>200</v>
       </c>
       <c r="R52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S52" s="3">
         <v>300</v>
@@ -3840,13 +3960,16 @@
         <v>300</v>
       </c>
       <c r="Z52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA52" s="3">
         <v>400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3931,7 +4057,7 @@
         <v>4600</v>
       </c>
       <c r="E54" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F54" s="3">
         <v>4500</v>
@@ -3940,67 +4066,70 @@
         <v>4500</v>
       </c>
       <c r="H54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I54" s="3">
         <v>4800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>4600</v>
       </c>
       <c r="K54" s="3">
         <v>4600</v>
       </c>
       <c r="L54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M54" s="3">
         <v>5400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -4087,20 +4218,20 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
@@ -4108,34 +4239,37 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4145,14 +4279,14 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -4161,7 +4295,7 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -4173,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -4209,10 +4343,13 @@
         <v>100</v>
       </c>
       <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4226,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -4241,13 +4378,13 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4268,19 +4405,19 @@
         <v>0</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="3">
         <v>100</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4306,7 +4446,7 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -4315,43 +4455,43 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
-        <v>100</v>
-      </c>
       <c r="Q60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
       </c>
       <c r="U60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="V60" s="3">
         <v>600</v>
       </c>
       <c r="W60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="X60" s="3">
         <v>700</v>
@@ -4360,13 +4500,16 @@
         <v>700</v>
       </c>
       <c r="Z60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4383,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
@@ -4392,7 +4535,7 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
@@ -4428,7 +4571,7 @@
         <v>200</v>
       </c>
       <c r="W61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X61" s="3">
         <v>300</v>
@@ -4440,10 +4583,13 @@
         <v>300</v>
       </c>
       <c r="AA61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4472,16 +4618,16 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>2700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2900</v>
-      </c>
-      <c r="O62" s="3">
-        <v>2800</v>
       </c>
       <c r="P62" s="3">
         <v>2800</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4768,7 +4926,7 @@
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
@@ -4777,43 +4935,43 @@
         <v>300</v>
       </c>
       <c r="K66" s="3">
+        <v>300</v>
+      </c>
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3400</v>
       </c>
       <c r="N66" s="3">
         <v>3400</v>
       </c>
       <c r="O66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>3400</v>
       </c>
       <c r="T66" s="3">
         <v>3400</v>
       </c>
       <c r="U66" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="V66" s="3">
         <v>3600</v>
       </c>
       <c r="W66" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="X66" s="3">
         <v>3700</v>
@@ -4822,13 +4980,16 @@
         <v>3700</v>
       </c>
       <c r="Z66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AA66" s="3">
         <v>3500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5173,7 +5347,7 @@
         <v>-59100</v>
       </c>
       <c r="E72" s="3">
-        <v>-59200</v>
+        <v>-59100</v>
       </c>
       <c r="F72" s="3">
         <v>-59200</v>
@@ -5188,61 +5362,64 @@
         <v>-59200</v>
       </c>
       <c r="J72" s="3">
-        <v>-59300</v>
+        <v>-59200</v>
       </c>
       <c r="K72" s="3">
         <v>-59300</v>
       </c>
       <c r="L72" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-61500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-61300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-61200</v>
       </c>
       <c r="O72" s="3">
         <v>-61200</v>
       </c>
       <c r="P72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-58700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-58900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-58800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-58700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-58500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-58400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-55500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-55400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-55300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-55100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-55800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,16 +5655,19 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E76" s="3">
         <v>4500</v>
-      </c>
-      <c r="E76" s="3">
-        <v>4400</v>
       </c>
       <c r="F76" s="3">
         <v>4400</v>
@@ -5490,67 +5676,70 @@
         <v>4400</v>
       </c>
       <c r="H76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I76" s="3">
         <v>4500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>2400</v>
       </c>
       <c r="O76" s="3">
         <v>2400</v>
       </c>
       <c r="P76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>4700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>400</v>
-      </c>
-      <c r="T76" s="3">
-        <v>500</v>
       </c>
       <c r="U76" s="3">
         <v>500</v>
       </c>
       <c r="V76" s="3">
+        <v>500</v>
+      </c>
+      <c r="W76" s="3">
         <v>600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>-100</v>
-      </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-2800</v>
       </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
       <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5841,10 +6040,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5862,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -5880,19 +6079,22 @@
         <v>100</v>
       </c>
       <c r="X83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3">
-        <v>100</v>
-      </c>
       <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
         <v>700</v>
       </c>
-      <c r="AA83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,38 +6490,41 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -6315,46 +6532,49 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>400</v>
       </c>
       <c r="Z89" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6411,23 +6632,23 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
@@ -6441,8 +6662,8 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6454,13 +6675,16 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6624,11 +6854,11 @@
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3">
+        <v>100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
@@ -6636,11 +6866,11 @@
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
@@ -6648,24 +6878,24 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
         <v>-4000</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6685,13 +6915,16 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>700</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7042,23 +7288,23 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7075,22 +7321,22 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>4400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -7099,13 +7345,16 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-700</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,16 +7430,19 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -7199,11 +7451,11 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -7220,25 +7472,25 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -7247,15 +7499,18 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>GBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,137 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -821,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
@@ -833,7 +840,7 @@
         <v>200</v>
       </c>
       <c r="U8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
         <v>200</v>
@@ -845,19 +852,25 @@
         <v>200</v>
       </c>
       <c r="Y8" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Z8" s="3">
         <v>200</v>
       </c>
       <c r="AA8" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="AB8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -888,56 +901,62 @@
       <c r="L9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
       </c>
       <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="V9" s="3">
-        <v>300</v>
-      </c>
       <c r="W9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X9" s="3">
         <v>300</v>
       </c>
       <c r="Y9" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Z9" s="3">
         <v>300</v>
       </c>
       <c r="AA9" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC9" s="3">
         <v>1200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -968,14 +987,14 @@
       <c r="L10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3">
         <v>-200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O10" s="3">
-        <v>-100</v>
       </c>
       <c r="P10" s="3">
         <v>-200</v>
@@ -984,10 +1003,10 @@
         <v>-100</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
@@ -996,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="V10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
         <v>-100</v>
@@ -1011,13 +1030,19 @@
         <v>-100</v>
       </c>
       <c r="AA10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC10" s="3">
         <v>-400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,31 +1239,37 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1244,50 +1283,56 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>2300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>2600</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-900</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1444,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1438,54 +1491,60 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>3000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1518,14 +1577,14 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
@@ -1533,28 +1592,34 @@
         <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-2800</v>
       </c>
-      <c r="X18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>200</v>
       </c>
-      <c r="AB18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,34 +1648,36 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
@@ -1619,7 +1686,7 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
@@ -1628,128 +1695,140 @@
         <v>100</v>
       </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-2700</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z21" s="3">
         <v>0</v>
       </c>
       <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>700</v>
       </c>
-      <c r="AB21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1823,8 +1902,14 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1832,13 +1917,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1847,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1856,55 +1941,61 @@
         <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-2800</v>
       </c>
-      <c r="X23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>0</v>
       </c>
       <c r="AB23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2160,14 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2072,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -2087,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -2096,55 +2199,61 @@
         <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-2800</v>
       </c>
-      <c r="X26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>0</v>
       </c>
       <c r="AB26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2152,13 +2261,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -2167,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -2176,55 +2285,61 @@
         <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-2800</v>
       </c>
-      <c r="X27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>0</v>
       </c>
       <c r="AB27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,25 +2418,31 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2333,31 +2454,31 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>2100</v>
       </c>
-      <c r="M29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-100</v>
-      </c>
       <c r="O29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,34 +2676,40 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
-      </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
@@ -2579,7 +2718,7 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
@@ -2588,43 +2727,49 @@
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2632,13 +2777,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -2647,64 +2792,70 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>2200</v>
       </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-2800</v>
       </c>
-      <c r="X33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>0</v>
       </c>
       <c r="AB33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2934,14 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2792,13 +2949,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -2807,149 +2964,161 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>2200</v>
       </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-2800</v>
       </c>
-      <c r="X35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>0</v>
       </c>
       <c r="AB35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3179,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3020,22 +3193,22 @@
         <v>400</v>
       </c>
       <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>400</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -3053,25 +3226,25 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
-      </c>
-      <c r="V41" s="3">
-        <v>400</v>
-      </c>
-      <c r="W41" s="3">
-        <v>400</v>
       </c>
       <c r="X41" s="3">
         <v>400</v>
@@ -3080,16 +3253,22 @@
         <v>400</v>
       </c>
       <c r="Z41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AB41" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3180,16 +3365,16 @@
         <v>3500</v>
       </c>
       <c r="F43" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G43" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H43" s="3">
         <v>3600</v>
       </c>
       <c r="I43" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="J43" s="3">
         <v>3600</v>
@@ -3204,34 +3389,34 @@
         <v>3700</v>
       </c>
       <c r="N43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P43" s="3">
         <v>4000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4100</v>
-      </c>
-      <c r="P43" s="3">
-        <v>4200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>4300</v>
       </c>
       <c r="R43" s="3">
         <v>4200</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>4300</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
         <v>100</v>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,13 +3519,19 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3352,19 +3549,19 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3379,37 +3576,43 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>4100</v>
       </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
       </c>
       <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
         <v>200</v>
       </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3420,76 +3623,82 @@
         <v>4000</v>
       </c>
       <c r="F46" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G46" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="H46" s="3">
         <v>3900</v>
       </c>
       <c r="I46" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="J46" s="3">
         <v>3900</v>
       </c>
       <c r="K46" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L46" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="M46" s="3">
         <v>3800</v>
       </c>
       <c r="N46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P46" s="3">
         <v>4100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>4500</v>
-      </c>
-      <c r="R46" s="3">
-        <v>4700</v>
       </c>
       <c r="S46" s="3">
         <v>4500</v>
       </c>
       <c r="T46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="U46" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>700</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>700</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>400</v>
       </c>
       <c r="AB46" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3589,10 +3804,10 @@
         <v>600</v>
       </c>
       <c r="I48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K48" s="3">
         <v>700</v>
@@ -3601,55 +3816,61 @@
         <v>700</v>
       </c>
       <c r="M48" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="N48" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="O48" s="3">
         <v>1400</v>
       </c>
       <c r="P48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R48" s="3">
         <v>1500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>3300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>3300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>3400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>6100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>6200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>6300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>6300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,37 +4121,43 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
@@ -3927,22 +4166,22 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
       </c>
       <c r="Q52" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
       </c>
       <c r="S52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U52" s="3">
         <v>300</v>
@@ -3963,13 +4202,19 @@
         <v>300</v>
       </c>
       <c r="AA52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC52" s="3">
         <v>400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="E54" s="3">
         <v>4600</v>
       </c>
       <c r="F54" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="G54" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H54" s="3">
         <v>4500</v>
       </c>
       <c r="I54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K54" s="3">
         <v>4800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>7900</v>
-      </c>
-      <c r="R54" s="3">
-        <v>8100</v>
       </c>
       <c r="S54" s="3">
         <v>7900</v>
       </c>
       <c r="T54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="U54" s="3">
+        <v>7900</v>
+      </c>
+      <c r="V54" s="3">
         <v>3800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>7000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>7100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>7300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>7200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,25 +4447,27 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -4221,55 +4482,61 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>500</v>
-      </c>
-      <c r="W57" s="3">
-        <v>400</v>
       </c>
       <c r="X57" s="3">
         <v>500</v>
       </c>
       <c r="Y57" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Z57" s="3">
         <v>500</v>
       </c>
       <c r="AA57" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC57" s="3">
         <v>200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4282,26 +4549,26 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4310,10 +4577,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -4346,10 +4613,16 @@
         <v>100</v>
       </c>
       <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4366,10 +4639,10 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -4381,7 +4654,7 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -4390,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -4408,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4423,13 +4696,19 @@
         <v>100</v>
       </c>
       <c r="AA59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4449,67 +4728,73 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
       </c>
       <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
-        <v>100</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>600</v>
-      </c>
-      <c r="X60" s="3">
-        <v>700</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>700</v>
       </c>
       <c r="Z60" s="3">
         <v>700</v>
       </c>
       <c r="AA60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC60" s="3">
         <v>400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4529,19 +4814,19 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>200</v>
@@ -4574,10 +4859,10 @@
         <v>200</v>
       </c>
       <c r="X61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z61" s="3">
         <v>300</v>
@@ -4586,10 +4871,16 @@
         <v>300</v>
       </c>
       <c r="AB61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4621,19 +4912,19 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>2700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>2800</v>
-      </c>
-      <c r="O62" s="3">
-        <v>2900</v>
       </c>
       <c r="P62" s="3">
         <v>2800</v>
       </c>
       <c r="Q62" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="R62" s="3">
         <v>2800</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5217,14 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4929,67 +5244,73 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
       </c>
       <c r="L66" s="3">
+        <v>300</v>
+      </c>
+      <c r="M66" s="3">
+        <v>300</v>
+      </c>
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="R66" s="3">
-        <v>3200</v>
       </c>
       <c r="S66" s="3">
         <v>3100</v>
       </c>
       <c r="T66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="U66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V66" s="3">
         <v>3400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3600</v>
-      </c>
-      <c r="X66" s="3">
-        <v>3700</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>3700</v>
       </c>
       <c r="Z66" s="3">
         <v>3700</v>
       </c>
       <c r="AA66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AC66" s="3">
         <v>3500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,22 +5679,28 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-59100</v>
+        <v>-59000</v>
       </c>
       <c r="E72" s="3">
         <v>-59100</v>
       </c>
       <c r="F72" s="3">
-        <v>-59200</v>
+        <v>-59100</v>
       </c>
       <c r="G72" s="3">
-        <v>-59200</v>
+        <v>-59100</v>
       </c>
       <c r="H72" s="3">
         <v>-59200</v>
@@ -5365,61 +5712,67 @@
         <v>-59200</v>
       </c>
       <c r="K72" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="M72" s="3">
         <v>-59300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-59300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-61500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-61300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-61200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-61200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-58700</v>
       </c>
       <c r="S72" s="3">
         <v>-58900</v>
       </c>
       <c r="T72" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="V72" s="3">
         <v>-58800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-58700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-58500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-58400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-55500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-55400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-55300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-55100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-55800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,8 +6023,14 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5667,79 +6038,85 @@
         <v>4600</v>
       </c>
       <c r="E76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G76" s="3">
         <v>4500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>4400</v>
       </c>
       <c r="H76" s="3">
         <v>4400</v>
       </c>
       <c r="I76" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="J76" s="3">
         <v>4400</v>
       </c>
       <c r="K76" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="L76" s="3">
         <v>4400</v>
       </c>
       <c r="M76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="O76" s="3">
         <v>2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>3400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>3600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>3700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6195,105 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5912,13 +6301,13 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -5927,64 +6316,70 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>2200</v>
       </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-2800</v>
       </c>
-      <c r="X81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>0</v>
       </c>
       <c r="AB81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6043,13 +6440,13 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -6064,10 +6461,10 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
@@ -6082,19 +6479,25 @@
         <v>100</v>
       </c>
       <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
         <v>200</v>
       </c>
-      <c r="Z83" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC83" s="3">
         <v>700</v>
       </c>
-      <c r="AB83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6502,79 +6935,85 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-300</v>
       </c>
-      <c r="AB89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6635,26 +7076,26 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
@@ -6665,11 +7106,11 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6678,13 +7119,19 @@
         <v>0</v>
       </c>
       <c r="AA91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,65 +7296,71 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
-        <v>100</v>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
+      <c r="I94" s="3">
+        <v>100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3">
         <v>-4000</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6918,13 +7377,19 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>700</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,13 +7758,19 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7291,26 +7782,26 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -7324,37 +7815,43 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>4400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-700</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7442,26 +7945,26 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -7475,42 +7978,48 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>GBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,13 +796,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -834,16 +838,16 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
         <v>200</v>
@@ -858,19 +862,22 @@
         <v>200</v>
       </c>
       <c r="AA8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB8" s="3">
         <v>400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,17 +914,17 @@
       <c r="N9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="3">
-        <v>200</v>
+      <c r="O9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
@@ -926,16 +933,16 @@
         <v>200</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>200</v>
       </c>
       <c r="X9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y9" s="3">
         <v>300</v>
@@ -944,19 +951,22 @@
         <v>300</v>
       </c>
       <c r="AA9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB9" s="3">
         <v>500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -993,23 +1003,23 @@
       <c r="N10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="3">
-        <v>-200</v>
+      <c r="O10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P10" s="3">
         <v>-200</v>
       </c>
       <c r="Q10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S10" s="3">
         <v>-200</v>
       </c>
-      <c r="S10" s="3">
-        <v>-100</v>
-      </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
@@ -1021,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="3">
         <v>-100</v>
@@ -1036,13 +1046,16 @@
         <v>-100</v>
       </c>
       <c r="AC10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD10" s="3">
         <v>-400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1271,8 +1291,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1289,23 +1309,23 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2300</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1313,26 +1333,29 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>2600</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-900</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1497,43 +1524,46 @@
         <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>300</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
       </c>
       <c r="X17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,13 +1571,13 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1583,11 +1613,11 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
@@ -1598,28 +1628,31 @@
         <v>-100</v>
       </c>
       <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z18" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>200</v>
       </c>
-      <c r="AD18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,17 +1693,17 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
@@ -1677,20 +1711,20 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>100</v>
-      </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
@@ -1701,16 +1735,16 @@
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1719,25 +1753,28 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
       <c r="AC20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1751,34 +1788,34 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
@@ -1787,51 +1824,54 @@
         <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
       <c r="W21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
       <c r="AA21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
         <v>700</v>
       </c>
-      <c r="AD21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1908,8 +1948,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1923,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1938,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -1959,43 +2002,46 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>100</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
       <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2215,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2181,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -2196,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -2217,43 +2269,46 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>100</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
       <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2267,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -2282,19 +2337,19 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -2303,43 +2358,46 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>100</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
       <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,19 +2482,22 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -2444,8 +2505,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2460,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>2100</v>
       </c>
-      <c r="O29" s="3">
-        <v>-100</v>
-      </c>
       <c r="P29" s="3">
         <v>-100</v>
       </c>
       <c r="Q29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2300</v>
       </c>
-      <c r="S29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="T29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,17 +2761,17 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
@@ -2709,20 +2779,20 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>-100</v>
-      </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
@@ -2733,16 +2803,16 @@
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
       </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2751,25 +2821,28 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
       <c r="AC32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2783,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -2798,64 +2871,67 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>2200</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
       <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2955,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -2970,155 +3049,161 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>2200</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
       <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3199,20 +3286,20 @@
         <v>400</v>
       </c>
       <c r="H41" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
+        <v>300</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -3232,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
-      </c>
-      <c r="V41" s="3">
-        <v>300</v>
       </c>
       <c r="W41" s="3">
         <v>300</v>
       </c>
       <c r="X41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y41" s="3">
         <v>400</v>
@@ -3259,16 +3346,19 @@
         <v>400</v>
       </c>
       <c r="AB41" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC41" s="3">
         <v>500</v>
       </c>
-      <c r="AC41" s="3">
-        <v>100</v>
-      </c>
       <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3371,7 +3464,7 @@
         <v>3500</v>
       </c>
       <c r="H43" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I43" s="3">
         <v>3600</v>
@@ -3380,46 +3473,46 @@
         <v>3600</v>
       </c>
       <c r="K43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4200</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,16 +3621,19 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3555,16 +3654,16 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3582,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>4100</v>
       </c>
-      <c r="V45" s="3">
-        <v>100</v>
-      </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3597,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>100</v>
@@ -3606,13 +3705,16 @@
         <v>100</v>
       </c>
       <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD45" s="3">
         <v>200</v>
       </c>
-      <c r="AD45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3629,22 +3731,22 @@
         <v>4000</v>
       </c>
       <c r="H46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I46" s="3">
         <v>3900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3900</v>
-      </c>
-      <c r="M46" s="3">
-        <v>3800</v>
       </c>
       <c r="N46" s="3">
         <v>3800</v>
@@ -3653,52 +3755,55 @@
         <v>3800</v>
       </c>
       <c r="P46" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="Q46" s="3">
         <v>4100</v>
       </c>
       <c r="R46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S46" s="3">
         <v>4300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4500</v>
-      </c>
-      <c r="V46" s="3">
-        <v>400</v>
       </c>
       <c r="W46" s="3">
         <v>400</v>
       </c>
       <c r="X46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Y46" s="3">
         <v>500</v>
       </c>
       <c r="Z46" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA46" s="3">
         <v>600</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>700</v>
       </c>
       <c r="AB46" s="3">
         <v>700</v>
       </c>
       <c r="AC46" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD46" s="3">
         <v>400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3810,7 +3918,7 @@
         <v>600</v>
       </c>
       <c r="K48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
@@ -3822,7 +3930,7 @@
         <v>700</v>
       </c>
       <c r="O48" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="P48" s="3">
         <v>1400</v>
@@ -3831,46 +3939,49 @@
         <v>1400</v>
       </c>
       <c r="R48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S48" s="3">
         <v>1500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>3100</v>
       </c>
       <c r="U48" s="3">
         <v>3100</v>
       </c>
       <c r="V48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="W48" s="3">
         <v>3200</v>
-      </c>
-      <c r="W48" s="3">
-        <v>3300</v>
       </c>
       <c r="X48" s="3">
         <v>3300</v>
       </c>
       <c r="Y48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Z48" s="3">
         <v>3400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6200</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>6300</v>
       </c>
       <c r="AC48" s="3">
         <v>6300</v>
       </c>
       <c r="AD48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="AE48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,25 +4244,28 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -4154,13 +4274,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
@@ -4172,10 +4292,10 @@
         <v>200</v>
       </c>
       <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+      <c r="R52" s="3">
         <v>1100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>200</v>
       </c>
       <c r="S52" s="3">
         <v>200</v>
@@ -4184,7 +4304,7 @@
         <v>200</v>
       </c>
       <c r="U52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V52" s="3">
         <v>300</v>
@@ -4208,13 +4328,16 @@
         <v>300</v>
       </c>
       <c r="AC52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD52" s="3">
         <v>400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,16 +4422,19 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E54" s="3">
         <v>4700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>4600</v>
       </c>
       <c r="F54" s="3">
         <v>4600</v>
@@ -4317,7 +4443,7 @@
         <v>4600</v>
       </c>
       <c r="H54" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="I54" s="3">
         <v>4500</v>
@@ -4326,67 +4452,70 @@
         <v>4500</v>
       </c>
       <c r="K54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L54" s="3">
         <v>4800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>4600</v>
       </c>
       <c r="N54" s="3">
         <v>4600</v>
       </c>
       <c r="O54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="P54" s="3">
         <v>5400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>7100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>7300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>7200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,16 +4579,17 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -4467,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -4488,20 +4619,20 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
@@ -4509,51 +4640,54 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -4562,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -4571,7 +4705,7 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4583,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -4619,10 +4753,13 @@
         <v>100</v>
       </c>
       <c r="AD58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4645,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -4660,13 +4797,13 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4687,19 +4824,19 @@
         <v>0</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="3">
         <v>100</v>
@@ -4707,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4734,7 +4874,7 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -4743,43 +4883,43 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
-        <v>100</v>
-      </c>
       <c r="T60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
       <c r="V60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>400</v>
       </c>
       <c r="X60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Y60" s="3">
         <v>600</v>
       </c>
       <c r="Z60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AA60" s="3">
         <v>700</v>
@@ -4788,13 +4928,16 @@
         <v>700</v>
       </c>
       <c r="AC60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD60" s="3">
         <v>400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4820,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -4829,7 +4972,7 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
@@ -4865,7 +5008,7 @@
         <v>200</v>
       </c>
       <c r="Z61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA61" s="3">
         <v>300</v>
@@ -4877,10 +5020,13 @@
         <v>300</v>
       </c>
       <c r="AD61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4918,16 +5064,16 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>2700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2900</v>
-      </c>
-      <c r="R62" s="3">
-        <v>2800</v>
       </c>
       <c r="S62" s="3">
         <v>2800</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5250,7 +5408,7 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
@@ -5259,43 +5417,43 @@
         <v>300</v>
       </c>
       <c r="N66" s="3">
+        <v>300</v>
+      </c>
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3400</v>
       </c>
       <c r="Q66" s="3">
         <v>3400</v>
       </c>
       <c r="R66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3100</v>
-      </c>
-      <c r="V66" s="3">
-        <v>3400</v>
       </c>
       <c r="W66" s="3">
         <v>3400</v>
       </c>
       <c r="X66" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="Y66" s="3">
         <v>3600</v>
       </c>
       <c r="Z66" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="AA66" s="3">
         <v>3700</v>
@@ -5304,13 +5462,16 @@
         <v>3700</v>
       </c>
       <c r="AC66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AD66" s="3">
         <v>3500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5694,7 +5868,7 @@
         <v>-59000</v>
       </c>
       <c r="E72" s="3">
-        <v>-59100</v>
+        <v>-59000</v>
       </c>
       <c r="F72" s="3">
         <v>-59100</v>
@@ -5703,7 +5877,7 @@
         <v>-59100</v>
       </c>
       <c r="H72" s="3">
-        <v>-59200</v>
+        <v>-59100</v>
       </c>
       <c r="I72" s="3">
         <v>-59200</v>
@@ -5718,61 +5892,64 @@
         <v>-59200</v>
       </c>
       <c r="M72" s="3">
-        <v>-59300</v>
+        <v>-59200</v>
       </c>
       <c r="N72" s="3">
         <v>-59300</v>
       </c>
       <c r="O72" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="P72" s="3">
         <v>-61500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-61300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-61200</v>
       </c>
       <c r="R72" s="3">
         <v>-61200</v>
       </c>
       <c r="S72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="T72" s="3">
         <v>-58900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-58700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-58900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-58800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-58700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-58500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-58400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-55500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-55400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-55300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-55100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-55800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,8 +6212,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6044,10 +6230,10 @@
         <v>4600</v>
       </c>
       <c r="G76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H76" s="3">
         <v>4500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>4400</v>
       </c>
       <c r="I76" s="3">
         <v>4400</v>
@@ -6056,67 +6242,70 @@
         <v>4400</v>
       </c>
       <c r="K76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L76" s="3">
         <v>4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>2400</v>
       </c>
       <c r="R76" s="3">
         <v>2400</v>
       </c>
       <c r="S76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T76" s="3">
         <v>4700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>400</v>
-      </c>
-      <c r="W76" s="3">
-        <v>500</v>
       </c>
       <c r="X76" s="3">
         <v>500</v>
       </c>
       <c r="Y76" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z76" s="3">
         <v>600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6307,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -6322,64 +6517,67 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>2200</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
       <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6446,10 +6645,10 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6467,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
@@ -6485,19 +6684,22 @@
         <v>100</v>
       </c>
       <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB83" s="3">
         <v>200</v>
       </c>
-      <c r="AB83" s="3">
-        <v>100</v>
-      </c>
       <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD83" s="3">
         <v>700</v>
       </c>
-      <c r="AD83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6941,32 +7158,32 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -6974,46 +7191,49 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="S89" s="3">
-        <v>-100</v>
-      </c>
       <c r="T89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="3">
         <v>400</v>
       </c>
       <c r="AC89" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-300</v>
       </c>
-      <c r="AD89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7082,23 +7303,23 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
+        <v>-100</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
@@ -7112,8 +7333,8 @@
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -7125,13 +7346,16 @@
         <v>0</v>
       </c>
       <c r="AC91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,19 +7529,22 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
@@ -7322,11 +7552,11 @@
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3">
+        <v>100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -7334,11 +7564,11 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
@@ -7346,24 +7576,24 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3">
         <v>-4000</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -7383,13 +7613,16 @@
         <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>700</v>
       </c>
-      <c r="AD94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,16 +8007,19 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -7788,23 +8034,23 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -7821,22 +8067,22 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>4400</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
@@ -7845,13 +8091,16 @@
         <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-700</v>
       </c>
-      <c r="AD100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7951,10 +8203,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -7963,11 +8215,11 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -7984,25 +8236,25 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
         <v>100</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
@@ -8011,15 +8263,18 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>GBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -799,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -841,16 +845,16 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
       <c r="W8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
         <v>200</v>
@@ -865,19 +869,22 @@
         <v>200</v>
       </c>
       <c r="AB8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC8" s="3">
         <v>400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -917,17 +924,17 @@
       <c r="O9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="3">
-        <v>200</v>
+      <c r="P9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
@@ -936,16 +943,16 @@
         <v>200</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
         <v>200</v>
       </c>
       <c r="Y9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z9" s="3">
         <v>300</v>
@@ -954,19 +961,22 @@
         <v>300</v>
       </c>
       <c r="AB9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC9" s="3">
         <v>500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1200</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1006,23 +1016,23 @@
       <c r="O10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="3">
-        <v>-200</v>
+      <c r="P10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q10" s="3">
         <v>-200</v>
       </c>
       <c r="R10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T10" s="3">
         <v>-200</v>
       </c>
-      <c r="T10" s="3">
-        <v>-100</v>
-      </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -1034,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="3">
         <v>-100</v>
@@ -1049,13 +1059,16 @@
         <v>-100</v>
       </c>
       <c r="AD10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE10" s="3">
         <v>-400</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1294,8 +1314,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1312,23 +1332,23 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>2300</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1336,26 +1356,29 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>2600</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="3">
         <v>-900</v>
       </c>
-      <c r="AE14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1527,43 +1554,46 @@
         <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
       </c>
       <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
-      </c>
-      <c r="W17" s="3">
-        <v>300</v>
       </c>
       <c r="X17" s="3">
         <v>300</v>
       </c>
       <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1574,13 +1604,13 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1616,11 +1646,11 @@
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>-100</v>
-      </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
@@ -1631,28 +1661,31 @@
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA18" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>200</v>
       </c>
-      <c r="AE18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1696,17 +1730,17 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
@@ -1714,20 +1748,20 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>100</v>
-      </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
@@ -1738,16 +1772,16 @@
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>200</v>
       </c>
       <c r="V20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1756,25 +1790,28 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AB20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
       <c r="AD20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1791,34 +1828,34 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
@@ -1827,43 +1864,46 @@
         <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
         <v>0</v>
       </c>
       <c r="X21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="3">
         <v>-100</v>
       </c>
       <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
       <c r="AB21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3">
         <v>700</v>
       </c>
-      <c r="AE21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1873,8 +1913,8 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1951,8 +1991,11 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1969,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1984,19 +2027,19 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
@@ -2005,43 +2048,46 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>100</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
       <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
-      <c r="AD23" s="3">
-        <v>0</v>
-      </c>
       <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2267,11 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2236,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -2251,19 +2303,19 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -2272,43 +2324,46 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>100</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
       <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
-      <c r="AD26" s="3">
-        <v>0</v>
-      </c>
       <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2325,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -2340,19 +2395,19 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -2361,43 +2416,46 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>100</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
       <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
-      <c r="AD27" s="3">
-        <v>0</v>
-      </c>
       <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2496,11 +2557,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -2508,8 +2569,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2524,28 +2585,28 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>2100</v>
       </c>
-      <c r="P29" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q29" s="3">
         <v>-100</v>
       </c>
       <c r="R29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-2300</v>
       </c>
-      <c r="T29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="U29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2764,17 +2834,17 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>-100</v>
-      </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
@@ -2782,20 +2852,20 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
@@ -2806,16 +2876,16 @@
         <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>-200</v>
       </c>
       <c r="V32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2824,25 +2894,28 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AB32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
       <c r="AD32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2859,10 +2932,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -2874,64 +2947,67 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>2200</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
       <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
-      <c r="AD33" s="3">
-        <v>0</v>
-      </c>
       <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,8 +3095,11 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3037,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -3052,158 +3131,164 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>2200</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
       <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
-      <c r="AD35" s="3">
-        <v>0</v>
-      </c>
       <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,13 +3354,14 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
         <v>400</v>
@@ -3289,20 +3376,20 @@
         <v>400</v>
       </c>
       <c r="I41" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J41" s="3">
         <v>300</v>
       </c>
       <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -3322,22 +3409,22 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
-      </c>
-      <c r="W41" s="3">
-        <v>300</v>
       </c>
       <c r="X41" s="3">
         <v>300</v>
       </c>
       <c r="Y41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Z41" s="3">
         <v>400</v>
@@ -3349,16 +3436,19 @@
         <v>400</v>
       </c>
       <c r="AC41" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD41" s="3">
         <v>500</v>
       </c>
-      <c r="AD41" s="3">
-        <v>100</v>
-      </c>
       <c r="AE41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,13 +3536,16 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>3500</v>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E43" s="3">
         <v>3500</v>
@@ -3467,7 +3560,7 @@
         <v>3500</v>
       </c>
       <c r="I43" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J43" s="3">
         <v>3600</v>
@@ -3476,46 +3569,46 @@
         <v>3600</v>
       </c>
       <c r="L43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4200</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
         <v>100</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3633,10 +3732,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3657,16 +3756,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3684,13 +3783,13 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>4100</v>
       </c>
-      <c r="W45" s="3">
-        <v>100</v>
-      </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3699,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
         <v>100</v>
@@ -3708,18 +3807,21 @@
         <v>100</v>
       </c>
       <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE45" s="3">
         <v>200</v>
       </c>
-      <c r="AE45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
         <v>4000</v>
@@ -3734,22 +3836,22 @@
         <v>4000</v>
       </c>
       <c r="I46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J46" s="3">
         <v>3900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3900</v>
-      </c>
-      <c r="N46" s="3">
-        <v>3800</v>
       </c>
       <c r="O46" s="3">
         <v>3800</v>
@@ -3758,75 +3860,78 @@
         <v>3800</v>
       </c>
       <c r="Q46" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="R46" s="3">
         <v>4100</v>
       </c>
       <c r="S46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="T46" s="3">
         <v>4300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4500</v>
-      </c>
-      <c r="W46" s="3">
-        <v>400</v>
       </c>
       <c r="X46" s="3">
         <v>400</v>
       </c>
       <c r="Y46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Z46" s="3">
         <v>500</v>
       </c>
       <c r="AA46" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB46" s="3">
         <v>600</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>700</v>
       </c>
       <c r="AC46" s="3">
         <v>700</v>
       </c>
       <c r="AD46" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE46" s="3">
         <v>400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>3500</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3921,7 +4029,7 @@
         <v>600</v>
       </c>
       <c r="L48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
@@ -3933,7 +4041,7 @@
         <v>700</v>
       </c>
       <c r="P48" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="Q48" s="3">
         <v>1400</v>
@@ -3942,46 +4050,49 @@
         <v>1400</v>
       </c>
       <c r="S48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T48" s="3">
         <v>1500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3200</v>
-      </c>
-      <c r="U48" s="3">
-        <v>3100</v>
       </c>
       <c r="V48" s="3">
         <v>3100</v>
       </c>
       <c r="W48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="X48" s="3">
         <v>3200</v>
-      </c>
-      <c r="X48" s="3">
-        <v>3300</v>
       </c>
       <c r="Y48" s="3">
         <v>3300</v>
       </c>
       <c r="Z48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="AA48" s="3">
         <v>3400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>6200</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>6300</v>
       </c>
       <c r="AD48" s="3">
         <v>6300</v>
       </c>
       <c r="AE48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="AF48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4277,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
@@ -4295,10 +4415,10 @@
         <v>200</v>
       </c>
       <c r="R52" s="3">
+        <v>200</v>
+      </c>
+      <c r="S52" s="3">
         <v>1100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>200</v>
       </c>
       <c r="T52" s="3">
         <v>200</v>
@@ -4307,7 +4427,7 @@
         <v>200</v>
       </c>
       <c r="V52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W52" s="3">
         <v>300</v>
@@ -4331,13 +4451,16 @@
         <v>300</v>
       </c>
       <c r="AD52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE52" s="3">
         <v>400</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,19 +4548,22 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E54" s="3">
         <v>4600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4600</v>
       </c>
       <c r="G54" s="3">
         <v>4600</v>
@@ -4446,7 +4572,7 @@
         <v>4600</v>
       </c>
       <c r="I54" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="J54" s="3">
         <v>4500</v>
@@ -4455,67 +4581,70 @@
         <v>4500</v>
       </c>
       <c r="L54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>4600</v>
       </c>
       <c r="O54" s="3">
         <v>4600</v>
       </c>
       <c r="P54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>5400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>7000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>7100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>7300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>7200</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4589,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -4601,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -4622,20 +4753,20 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
@@ -4643,34 +4774,37 @@
         <v>100</v>
       </c>
       <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4699,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -4708,7 +4842,7 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4720,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
@@ -4756,10 +4890,13 @@
         <v>100</v>
       </c>
       <c r="AE58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4785,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -4800,13 +4937,13 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4827,19 +4964,19 @@
         <v>0</v>
       </c>
       <c r="Y59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD59" s="3">
         <v>100</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4877,7 +5017,7 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -4886,43 +5026,43 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
-        <v>100</v>
-      </c>
       <c r="U60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
       </c>
       <c r="W60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>400</v>
       </c>
       <c r="Y60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Z60" s="3">
         <v>600</v>
       </c>
       <c r="AA60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AB60" s="3">
         <v>700</v>
@@ -4931,13 +5071,16 @@
         <v>700</v>
       </c>
       <c r="AD60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE60" s="3">
         <v>400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4966,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -4975,7 +5118,7 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>200</v>
@@ -5011,7 +5154,7 @@
         <v>200</v>
       </c>
       <c r="AA61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB61" s="3">
         <v>300</v>
@@ -5023,10 +5166,13 @@
         <v>300</v>
       </c>
       <c r="AE61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5067,16 +5213,16 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2900</v>
-      </c>
-      <c r="S62" s="3">
-        <v>2800</v>
       </c>
       <c r="T62" s="3">
         <v>2800</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,8 +5536,11 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5411,7 +5569,7 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
@@ -5420,43 +5578,43 @@
         <v>300</v>
       </c>
       <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3400</v>
       </c>
       <c r="R66" s="3">
         <v>3400</v>
       </c>
       <c r="S66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3100</v>
-      </c>
-      <c r="W66" s="3">
-        <v>3400</v>
       </c>
       <c r="X66" s="3">
         <v>3400</v>
       </c>
       <c r="Y66" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="Z66" s="3">
         <v>3600</v>
       </c>
       <c r="AA66" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="AB66" s="3">
         <v>3700</v>
@@ -5465,13 +5623,16 @@
         <v>3700</v>
       </c>
       <c r="AD66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AE66" s="3">
         <v>3500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,8 +6030,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5871,7 +6045,7 @@
         <v>-59000</v>
       </c>
       <c r="F72" s="3">
-        <v>-59100</v>
+        <v>-59000</v>
       </c>
       <c r="G72" s="3">
         <v>-59100</v>
@@ -5880,7 +6054,7 @@
         <v>-59100</v>
       </c>
       <c r="I72" s="3">
-        <v>-59200</v>
+        <v>-59100</v>
       </c>
       <c r="J72" s="3">
         <v>-59200</v>
@@ -5895,61 +6069,64 @@
         <v>-59200</v>
       </c>
       <c r="N72" s="3">
-        <v>-59300</v>
+        <v>-59200</v>
       </c>
       <c r="O72" s="3">
         <v>-59300</v>
       </c>
       <c r="P72" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-61500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-61300</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-61200</v>
       </c>
       <c r="S72" s="3">
         <v>-61200</v>
       </c>
       <c r="T72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="U72" s="3">
         <v>-58900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-58700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-58900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-58800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-58700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-58500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-58400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-55500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-55400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-55300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-55100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-55800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6233,10 +6419,10 @@
         <v>4600</v>
       </c>
       <c r="H76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I76" s="3">
         <v>4500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>4400</v>
       </c>
       <c r="J76" s="3">
         <v>4400</v>
@@ -6245,67 +6431,70 @@
         <v>4400</v>
       </c>
       <c r="L76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M76" s="3">
         <v>4500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>2400</v>
       </c>
       <c r="S76" s="3">
         <v>2400</v>
       </c>
       <c r="T76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U76" s="3">
         <v>4700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>400</v>
-      </c>
-      <c r="X76" s="3">
-        <v>500</v>
       </c>
       <c r="Y76" s="3">
         <v>500</v>
       </c>
       <c r="Z76" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA76" s="3">
         <v>600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,102 +6582,108 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6505,10 +6700,10 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -6520,64 +6715,67 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>2200</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
       <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
-      <c r="AD81" s="3">
-        <v>0</v>
-      </c>
       <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6648,10 +6847,10 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -6669,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
@@ -6687,19 +6886,22 @@
         <v>100</v>
       </c>
       <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC83" s="3">
         <v>200</v>
       </c>
-      <c r="AC83" s="3">
-        <v>100</v>
-      </c>
       <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE83" s="3">
         <v>700</v>
       </c>
-      <c r="AE83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7161,32 +7378,32 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -7194,46 +7411,49 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="T89" s="3">
-        <v>-100</v>
-      </c>
       <c r="U89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AC89" s="3">
         <v>400</v>
       </c>
       <c r="AD89" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-300</v>
       </c>
-      <c r="AE89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7306,23 +7527,23 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
@@ -7336,8 +7557,8 @@
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
@@ -7349,13 +7570,16 @@
         <v>0</v>
       </c>
       <c r="AD91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AE91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7543,11 +7773,11 @@
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
@@ -7555,11 +7785,11 @@
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
-        <v>100</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
+        <v>100</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
@@ -7567,11 +7797,11 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
@@ -7579,24 +7809,24 @@
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="U94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3">
         <v>-4000</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
@@ -7616,13 +7846,16 @@
         <v>0</v>
       </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>700</v>
       </c>
-      <c r="AE94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8021,8 +8267,8 @@
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -8037,23 +8283,23 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -8070,22 +8316,22 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>4400</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
@@ -8094,13 +8340,16 @@
         <v>0</v>
       </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>-700</v>
       </c>
-      <c r="AE100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8206,10 +8458,10 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -8218,11 +8470,11 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -8239,25 +8491,25 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
         <v>100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
@@ -8266,15 +8518,18 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-400</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>100</v>
       </c>
     </row>
